--- a/Jízdní řády/23.xlsx
+++ b/Jízdní řády/23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.ruzicka\SynologyDrive\GitHub\MHD Desktop\Jízdní řády\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.ruzicka\SynologyDrive\GitHub\MHD-Most---Litv-nov_WEB-version\Jízdní řády\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02891B9F-FB14-4506-AA23-538A1C3D2360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBF911B-4B70-4862-80AF-CFF6DD152361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29850" yWindow="110" windowWidth="29780" windowHeight="16140" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Litvínov, poliklinika " sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="47">
   <si>
     <t>Hodiny</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>24, 56</t>
+  </si>
+  <si>
+    <t>10, 25, 40, 55</t>
   </si>
 </sst>
 </file>
@@ -809,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A712385D-0E88-4DF1-95CA-9A8557E217A4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
@@ -1028,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F24FBA-E2C2-40A0-A5D4-7F4342BA590A}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1081,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1094,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1102,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1110,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1118,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1126,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,7 +1137,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,7 +1145,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,7 +1161,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1166,7 +1169,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,7 +1177,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,7 +1185,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
